--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,12 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="129">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>sheet_name</t>
   </si>
   <si>
@@ -72,12 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>O.Hensby</t>
+  </si>
+  <si>
     <t>20220301</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -111,7 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
+    <t>ngDe</t>
   </si>
   <si>
     <t>index</t>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-01 11:12:48.145557</t>
+    <t>2022-03-01 13:26:31.239471</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -408,17 +408,17 @@
     <t>4T000008</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +429,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -595,8 +603,8 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="Date"/>
     <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="JobNo"/>
   </tableColumns>
@@ -619,7 +627,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -638,7 +646,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -657,7 +665,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -668,7 +676,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -679,7 +687,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -698,7 +706,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -717,7 +725,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -736,7 +744,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -755,7 +763,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -774,7 +782,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -793,7 +801,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1369,22 +1377,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1401,22 +1409,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1433,22 +1441,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1465,22 +1473,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>-3</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1497,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>-3</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1529,22 +1537,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>-3</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1561,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>-3</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1593,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1625,22 +1633,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1657,22 +1665,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1689,22 +1697,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1721,22 +1729,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>-2</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1753,22 +1761,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>-2</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1785,22 +1793,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>-2</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1817,22 +1825,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>-2</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1849,22 +1857,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1881,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1913,22 +1921,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1945,22 +1953,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1977,22 +1985,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>-2</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2009,22 +2017,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>-2</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2041,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>-2</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2073,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>-2</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2105,22 +2113,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2137,22 +2145,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2169,22 +2177,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2201,22 +2209,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2233,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>-3</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2265,22 +2273,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
         <v>-2</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2297,22 +2305,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
         <v>-3</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2329,22 +2337,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>-3</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2414,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2446,22 +2454,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2478,22 +2486,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2510,22 +2518,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>-3</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2542,22 +2550,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>-3</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2574,22 +2582,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>-3</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2606,22 +2614,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>-3</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2638,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2670,22 +2678,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2702,22 +2710,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2734,22 +2742,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2766,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>-3</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2798,22 +2806,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>-2</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2830,22 +2838,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>-2</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2862,22 +2870,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>-3</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2894,22 +2902,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2926,22 +2934,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2958,22 +2966,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2990,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3022,22 +3030,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>-2</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3054,22 +3062,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>-2</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3086,22 +3094,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>-2</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3118,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>-2</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3150,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25">
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3182,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26">
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3214,22 +3222,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27">
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3246,22 +3254,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28">
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3278,22 +3286,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>-3</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3310,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3342,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
         <v>-3</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3374,22 +3382,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>-3</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3459,22 +3467,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3491,22 +3499,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3523,22 +3531,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3555,22 +3563,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>-4</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3587,22 +3595,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>-3</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3619,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>-3</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3651,22 +3659,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>-4</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3683,22 +3691,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3715,22 +3723,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3747,22 +3755,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3779,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3811,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>-3</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3843,22 +3851,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>-2</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3875,22 +3883,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3907,22 +3915,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>-3</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3939,22 +3947,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3971,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4003,22 +4011,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4035,22 +4043,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4067,22 +4075,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>-3</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4099,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>-2</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4131,22 +4139,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>-2</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4163,22 +4171,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>-3</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4195,22 +4203,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25">
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4227,22 +4235,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26">
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4259,22 +4267,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27">
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4291,22 +4299,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28">
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4323,22 +4331,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>-3</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4355,22 +4363,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
         <v>-3</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4387,22 +4395,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
         <v>-3</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4419,22 +4427,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>-3</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4668,22 +4676,22 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="E2" t="s">
         <v>127</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
         <v>127</v>
@@ -4700,25 +4708,25 @@
         <v>97</v>
       </c>
       <c r="D3">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" t="s">
         <v>128</v>
-      </c>
-      <c r="J3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4732,25 +4740,25 @@
         <v>98</v>
       </c>
       <c r="D4">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" t="s">
         <v>128</v>
-      </c>
-      <c r="J4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4767,22 +4775,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4799,22 +4807,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4831,22 +4839,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4863,22 +4871,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4892,25 +4900,25 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>12.2</v>
+        <v>10.6</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" t="s">
         <v>128</v>
-      </c>
-      <c r="J9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4924,25 +4932,25 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>27.7</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
         <v>128</v>
-      </c>
-      <c r="J10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4956,25 +4964,25 @@
         <v>105</v>
       </c>
       <c r="D11">
-        <v>13.6</v>
+        <v>11.6</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
         <v>128</v>
-      </c>
-      <c r="J11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4988,25 +4996,25 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>28.2</v>
+        <v>26.4</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
         <v>128</v>
-      </c>
-      <c r="J12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5023,22 +5031,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5052,25 +5060,25 @@
         <v>108</v>
       </c>
       <c r="D14">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5084,25 +5092,25 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5119,22 +5127,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5148,25 +5156,25 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>14.6</v>
+        <v>12.9</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
         <v>128</v>
-      </c>
-      <c r="J17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5180,25 +5188,25 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>30.5</v>
+        <v>28.3</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
         <v>128</v>
-      </c>
-      <c r="J18" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5212,25 +5220,25 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F19">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" t="s">
         <v>128</v>
-      </c>
-      <c r="J19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5244,25 +5252,25 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>30.9</v>
+        <v>28.5</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" t="s">
         <v>128</v>
-      </c>
-      <c r="J20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5276,25 +5284,25 @@
         <v>115</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5308,25 +5316,25 @@
         <v>116</v>
       </c>
       <c r="D22">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
         <v>128</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
-        <v>127</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5340,25 +5348,25 @@
         <v>117</v>
       </c>
       <c r="D23">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
         <v>128</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>127</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5372,25 +5380,25 @@
         <v>118</v>
       </c>
       <c r="D24">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5404,25 +5412,25 @@
         <v>119</v>
       </c>
       <c r="D25">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" t="s">
         <v>128</v>
-      </c>
-      <c r="J25" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5436,25 +5444,25 @@
         <v>120</v>
       </c>
       <c r="D26">
-        <v>19.6</v>
+        <v>17.8</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26">
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" t="s">
         <v>128</v>
-      </c>
-      <c r="J26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5468,25 +5476,25 @@
         <v>121</v>
       </c>
       <c r="D27">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" t="s">
         <v>128</v>
-      </c>
-      <c r="J27" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5500,25 +5508,25 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>19.9</v>
+        <v>17.7</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F28">
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" t="s">
         <v>128</v>
-      </c>
-      <c r="J28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5535,22 +5543,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5564,25 +5572,25 @@
         <v>124</v>
       </c>
       <c r="D30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5599,22 +5607,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5631,22 +5639,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5713,13 +5721,13 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>127</v>
@@ -5728,10 +5736,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5745,25 +5753,25 @@
         <v>97</v>
       </c>
       <c r="D3">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>128</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5777,25 +5785,25 @@
         <v>98</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5812,22 +5820,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5844,22 +5852,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5876,22 +5884,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5908,22 +5916,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5937,25 +5945,25 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" t="s">
         <v>128</v>
-      </c>
-      <c r="J9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5969,25 +5977,25 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>14.8</v>
+        <v>12.6</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
         <v>128</v>
-      </c>
-      <c r="J10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6001,25 +6009,25 @@
         <v>105</v>
       </c>
       <c r="D11">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
         <v>128</v>
-      </c>
-      <c r="J11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6033,25 +6041,25 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>12.7</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
         <v>128</v>
-      </c>
-      <c r="J12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6068,22 +6076,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6100,22 +6108,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6132,22 +6140,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6164,22 +6172,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6193,25 +6201,25 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
         <v>128</v>
-      </c>
-      <c r="J17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6225,25 +6233,25 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>18.6</v>
+        <v>15.7</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18">
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
         <v>128</v>
-      </c>
-      <c r="J18" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6257,25 +6265,25 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" t="s">
         <v>128</v>
-      </c>
-      <c r="J19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6289,25 +6297,25 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>18.9</v>
+        <v>15.8</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20">
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" t="s">
         <v>128</v>
-      </c>
-      <c r="J20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6324,22 +6332,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6356,22 +6364,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6388,22 +6396,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6420,22 +6428,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6449,25 +6457,25 @@
         <v>119</v>
       </c>
       <c r="D25">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
         <v>128</v>
       </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6481,25 +6489,25 @@
         <v>120</v>
       </c>
       <c r="D26">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" t="s">
         <v>128</v>
-      </c>
-      <c r="J26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6513,25 +6521,25 @@
         <v>121</v>
       </c>
       <c r="D27">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
         <v>128</v>
       </c>
-      <c r="F27">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6545,25 +6553,25 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" t="s">
         <v>128</v>
-      </c>
-      <c r="J28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6580,22 +6588,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6612,22 +6620,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6644,22 +6652,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6676,22 +6684,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6758,25 +6766,25 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6790,25 +6798,25 @@
         <v>97</v>
       </c>
       <c r="D3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6822,25 +6830,25 @@
         <v>98</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6857,22 +6865,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>-2</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6889,22 +6897,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6921,22 +6929,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6953,22 +6961,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>-2</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6982,25 +6990,25 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>128</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>127</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7014,25 +7022,25 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
         <v>128</v>
-      </c>
-      <c r="J10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7046,25 +7054,25 @@
         <v>105</v>
       </c>
       <c r="D11">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>128</v>
-      </c>
-      <c r="F11">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>127</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7078,25 +7086,25 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
         <v>128</v>
-      </c>
-      <c r="J12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7113,22 +7121,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7145,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7177,22 +7185,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7209,22 +7217,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7238,22 +7246,22 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="E17" t="s">
         <v>127</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
         <v>127</v>
@@ -7270,25 +7278,25 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>9.800000000000001</v>
+        <v>8.2</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
         <v>128</v>
-      </c>
-      <c r="J18" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7302,25 +7310,25 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
         <v>128</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>127</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7334,25 +7342,25 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>8.2</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" t="s">
         <v>128</v>
-      </c>
-      <c r="J20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7369,22 +7377,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7401,22 +7409,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7433,22 +7441,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7465,22 +7473,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7494,13 +7502,13 @@
         <v>119</v>
       </c>
       <c r="D25">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
         <v>127</v>
@@ -7509,10 +7517,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7526,25 +7534,25 @@
         <v>120</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>127</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7558,13 +7566,13 @@
         <v>121</v>
       </c>
       <c r="D27">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
         <v>127</v>
@@ -7573,10 +7581,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7590,25 +7598,25 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
         <v>128</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>127</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7625,22 +7633,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -7657,22 +7665,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7689,22 +7697,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7721,22 +7729,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -7806,22 +7814,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7838,22 +7846,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7870,22 +7878,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7902,22 +7910,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>-2</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7934,22 +7942,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>-2</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7966,22 +7974,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>-2</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7998,22 +8006,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>-2</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8027,13 +8035,13 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
         <v>127</v>
@@ -8042,10 +8050,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8059,25 +8067,25 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>127</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8091,13 +8099,13 @@
         <v>105</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>127</v>
@@ -8106,10 +8114,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8123,25 +8131,25 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>127</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8158,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8190,22 +8198,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8222,22 +8230,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8254,22 +8262,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8283,13 +8291,13 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
         <v>127</v>
@@ -8298,10 +8306,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8315,22 +8323,22 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="E18" t="s">
         <v>127</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
         <v>127</v>
@@ -8347,13 +8355,13 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
         <v>127</v>
@@ -8362,10 +8370,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8379,22 +8387,22 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="E20" t="s">
         <v>127</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
         <v>127</v>
@@ -8414,22 +8422,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8446,22 +8454,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8478,22 +8486,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8510,22 +8518,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -8539,25 +8547,25 @@
         <v>119</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8571,25 +8579,25 @@
         <v>120</v>
       </c>
       <c r="D26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8603,25 +8611,25 @@
         <v>121</v>
       </c>
       <c r="D27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8635,25 +8643,25 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8670,22 +8678,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>-2</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8702,22 +8710,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -8734,22 +8742,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -8766,22 +8774,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>-2</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8851,22 +8859,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8883,22 +8891,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8915,22 +8923,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8947,22 +8955,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>-3</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8979,22 +8987,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>-2</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9011,22 +9019,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>-2</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9043,22 +9051,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>-3</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9072,25 +9080,25 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9104,25 +9112,25 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9136,25 +9144,25 @@
         <v>105</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9168,25 +9176,25 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9203,22 +9211,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>-2</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9235,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9267,22 +9275,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>-2</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9299,22 +9307,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>-2</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9328,25 +9336,25 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9360,13 +9368,13 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
         <v>127</v>
@@ -9375,10 +9383,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9392,25 +9400,25 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -9424,13 +9432,13 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
         <v>127</v>
@@ -9439,10 +9447,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9459,22 +9467,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>-2</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -9491,22 +9499,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -9523,22 +9531,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -9555,22 +9563,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>-2</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -9587,22 +9595,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -9619,22 +9627,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -9651,22 +9659,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -9683,22 +9691,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -9715,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>-2</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -9747,22 +9755,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
         <v>-2</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -9779,22 +9787,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
         <v>-2</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -9811,22 +9819,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>-2</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -9896,22 +9904,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9928,22 +9936,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9960,22 +9968,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9992,22 +10000,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>-3</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10024,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10056,22 +10064,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>-3</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10088,22 +10096,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>-3</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10120,22 +10128,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10152,22 +10160,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10184,22 +10192,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10213,25 +10221,25 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10248,22 +10256,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>-2</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10280,22 +10288,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>-2</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10312,22 +10320,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>-2</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10344,22 +10352,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16">
         <v>-2</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10376,22 +10384,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10405,25 +10413,25 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10437,25 +10445,25 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10469,25 +10477,25 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10504,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>-2</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10536,22 +10544,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10568,22 +10576,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>-2</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10600,22 +10608,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>-2</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10632,22 +10640,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10664,22 +10672,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10696,22 +10704,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10728,22 +10736,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10760,22 +10768,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>-2</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10792,22 +10800,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30">
         <v>-2</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10824,22 +10832,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31">
         <v>-2</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10856,22 +10864,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>-2</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="129">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,46 +72,46 @@
     <t>10</t>
   </si>
   <si>
-    <t>O.Hensby</t>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion % Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
+    <t>/c/e</t>
   </si>
   <si>
     <t>20220301</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion % Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>ngDe</t>
+    <t>jovyan</t>
   </si>
   <si>
     <t>index</t>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-01 13:26:31.239471</t>
+    <t>2022-03-01 21:00:04.952100</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -195,7 +195,7 @@
     <t>Criterion 3 (Max Delta T)</t>
   </si>
   <si>
-    <t>The percentage of occupied hours where delta T equals or excedes the threshold (1 kelvin) over the total occupied hours.</t>
+    <t>The percentage of occupied hours where delta T equals or exceeds the threshold (1 kelvin) over the total occupied hours.</t>
   </si>
   <si>
     <t>The maximum daily weight taken from the year.</t>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,14 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -603,10 +595,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="2" name="sheet_name"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,7 +619,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -646,7 +638,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -665,7 +657,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -676,7 +668,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -687,7 +679,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -706,7 +698,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -725,7 +717,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -744,7 +736,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -763,7 +755,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -782,7 +774,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -801,7 +793,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1130,10 +1122,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1144,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1161,13 +1153,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1178,13 +1170,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1195,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1212,13 +1204,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1229,13 +1221,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1246,13 +1238,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1263,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1280,13 +1272,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1297,10 +1289,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -7278,7 +7270,7 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>8.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
@@ -7342,7 +7334,7 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>8.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E20" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="129">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,6 +72,15 @@
     <t>10</t>
   </si>
   <si>
+    <t>ngDe</t>
+  </si>
+  <si>
+    <t>20220302</t>
+  </si>
+  <si>
+    <t>O.Hensby</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -105,15 +114,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>20220301</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-01 21:00:04.952100</t>
+    <t>2022-03-02 15:11:42.399175</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -195,7 +195,7 @@
     <t>Criterion 3 (Max Delta T)</t>
   </si>
   <si>
-    <t>The percentage of occupied hours where delta T equals or exceeds the threshold (1 kelvin) over the total occupied hours.</t>
+    <t>The percentage of occupied hours where delta T equals or excedes the threshold (1 kelvin) over the total occupied hours.</t>
   </si>
   <si>
     <t>The maximum daily weight taken from the year.</t>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +429,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -595,10 +603,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,7 +627,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -638,7 +646,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -657,7 +665,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -668,7 +676,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -679,7 +687,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -698,7 +706,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -717,7 +725,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -736,7 +744,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -755,7 +763,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -774,7 +782,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -793,7 +801,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1122,13 +1130,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1136,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1153,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1170,16 +1178,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1187,16 +1195,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1204,16 +1212,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1221,16 +1229,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1238,16 +1246,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1255,16 +1263,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1272,16 +1280,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1289,13 +1297,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -7270,7 +7278,7 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
@@ -7334,7 +7342,7 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E20" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Project Information" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion % Definitions" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion Definitions" sheetId="3" r:id="rId3"/>
     <sheet name="Results, Air Speed 0.1" sheetId="4" r:id="rId4"/>
     <sheet name="Results, Air Speed 0.15" sheetId="5" r:id="rId5"/>
     <sheet name="Results, Air Speed 0.2" sheetId="6" r:id="rId6"/>
@@ -30,15 +30,15 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -75,45 +75,45 @@
     <t>ngDe</t>
   </si>
   <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>20220302</t>
   </si>
   <si>
     <t>O.Hensby</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion % Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-02 15:11:42.399175</t>
+    <t>2022-03-02 16:50:29.101876</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -195,7 +195,7 @@
     <t>Criterion 3 (Max Delta T)</t>
   </si>
   <si>
-    <t>The percentage of occupied hours where delta T equals or excedes the threshold (1 kelvin) over the total occupied hours.</t>
+    <t>The percentage of occupied hours where delta T equals or exceeds the threshold (1 kelvin) over the total occupied hours.</t>
   </si>
   <si>
     <t>The maximum daily weight taken from the year.</t>
@@ -604,9 +604,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1133,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1147,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1164,13 +1164,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1181,13 +1181,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1198,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1215,13 +1215,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1232,13 +1232,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1249,13 +1249,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1266,13 +1266,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1283,13 +1283,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1300,10 +1300,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="129">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,7 +72,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>ngDe</t>
+    <t>jovyan</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -108,12 +108,12 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>20220302</t>
   </si>
   <si>
-    <t>O.Hensby</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-02 16:50:29.101876</t>
+    <t>2022-03-02 17:12:56.537527</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,14 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -603,10 +595,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="2" name="Author"/>
     <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,7 +619,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -646,7 +638,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -665,7 +657,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -676,7 +668,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -687,7 +679,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -706,7 +698,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -725,7 +717,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -744,7 +736,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -763,7 +755,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -782,7 +774,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -801,7 +793,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7278,7 +7270,7 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>8.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
@@ -7342,7 +7334,7 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>8.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E20" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -30,15 +30,15 @@
     <t>Author</t>
   </si>
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,7 +72,13 @@
     <t>10</t>
   </si>
   <si>
-    <t>jovyan</t>
+    <t>O.Hensby</t>
+  </si>
+  <si>
+    <t>ngDe</t>
+  </si>
+  <si>
+    <t>20220303</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -108,12 +114,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>20220302</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-02 17:12:56.537527</t>
+    <t>2022-03-03 15:15:39.409239</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +429,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -596,9 +604,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="JobNo"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,7 +627,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -638,7 +646,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -657,7 +665,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -668,7 +676,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -679,7 +687,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -698,7 +706,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -717,7 +725,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -736,7 +744,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -755,7 +763,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -774,7 +782,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -793,7 +801,7 @@
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="10" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1125,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1139,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1156,13 +1164,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1173,13 +1181,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1190,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1207,13 +1215,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1224,13 +1232,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1241,13 +1249,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1258,13 +1266,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1275,13 +1283,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1292,10 +1300,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -7270,7 +7278,7 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
@@ -7334,7 +7342,7 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E20" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="129">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>sheet_name</t>
   </si>
   <si>
@@ -72,15 +72,15 @@
     <t>10</t>
   </si>
   <si>
+    <t>ngDe</t>
+  </si>
+  <si>
+    <t>20220303</t>
+  </si>
+  <si>
     <t>O.Hensby</t>
   </si>
   <si>
-    <t>ngDe</t>
-  </si>
-  <si>
-    <t>20220303</t>
-  </si>
-  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-03 15:15:39.409239</t>
+    <t>2022-03-03 15:33:43.320121</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -189,7 +189,7 @@
     <t>Criterion 1 (% Hours Delta T &gt;= 1K)</t>
   </si>
   <si>
-    <t>Criterion 2 (Max Daily Deg. Hours)</t>
+    <t>Criterion 2 (Max Daily Weight)</t>
   </si>
   <si>
     <t>Criterion 3 (Max Delta T)</t>
@@ -603,9 +603,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Date"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="Author"/>
     <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -621,7 +621,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
@@ -640,7 +640,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
@@ -659,7 +659,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
@@ -700,7 +700,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
@@ -719,7 +719,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
@@ -738,7 +738,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
@@ -757,7 +757,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
@@ -776,7 +776,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>
@@ -795,7 +795,7 @@
     <tableColumn id="3" name="Room ID"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Deg. Hours)"/>
+    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
     <tableColumn id="7" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="Criterion 3 (Pass/Fail)"/>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -33,12 +33,12 @@
     <t>Date</t>
   </si>
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -78,42 +78,42 @@
     <t>20220303</t>
   </si>
   <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>O.Hensby</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-03 15:33:43.320121</t>
+    <t>2022-03-03 16:22:36.779643</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -605,8 +605,8 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
     <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1136,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1150,10 +1150,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1167,10 +1167,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1184,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1201,10 +1201,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1218,10 +1218,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1235,10 +1235,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1252,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1269,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1286,10 +1286,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1303,7 +1303,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="129">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>JobNo</t>
   </si>
   <si>
@@ -72,6 +72,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
     <t>20220308</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>/c/e</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-08 14:44:03.338663</t>
+    <t>2022-03-08 14:52:54.463102</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -204,22 +204,115 @@
     <t>The maximum delta T taken from the year.</t>
   </si>
   <si>
+    <t>Room Name</t>
+  </si>
+  <si>
+    <t>Criterion 1 (Pass/Fail)</t>
+  </si>
+  <si>
+    <t>Criterion 2 (Pass/Fail)</t>
+  </si>
+  <si>
+    <t>Criterion 3 (Pass/Fail)</t>
+  </si>
+  <si>
+    <t>TM52 (Pass/Fail)</t>
+  </si>
+  <si>
     <t>Room ID</t>
   </si>
   <si>
-    <t>Criterion 1 (Pass/Fail)</t>
-  </si>
-  <si>
-    <t>Criterion 2 (Pass/Fail)</t>
-  </si>
-  <si>
-    <t>Criterion 3 (Pass/Fail)</t>
-  </si>
-  <si>
-    <t>TM52 (Pass/Fail)</t>
-  </si>
-  <si>
-    <t>Room Name</t>
+    <t>1S000001</t>
+  </si>
+  <si>
+    <t>1S000002</t>
+  </si>
+  <si>
+    <t>1S000003</t>
+  </si>
+  <si>
+    <t>1S000004</t>
+  </si>
+  <si>
+    <t>1S000005</t>
+  </si>
+  <si>
+    <t>1S000006</t>
+  </si>
+  <si>
+    <t>1S000007</t>
+  </si>
+  <si>
+    <t>2N000001</t>
+  </si>
+  <si>
+    <t>2N000002</t>
+  </si>
+  <si>
+    <t>2N000003</t>
+  </si>
+  <si>
+    <t>2N000004</t>
+  </si>
+  <si>
+    <t>2N000005</t>
+  </si>
+  <si>
+    <t>2N000006</t>
+  </si>
+  <si>
+    <t>2N000007</t>
+  </si>
+  <si>
+    <t>2N000008</t>
+  </si>
+  <si>
+    <t>3R000001</t>
+  </si>
+  <si>
+    <t>3R000002</t>
+  </si>
+  <si>
+    <t>3R000003</t>
+  </si>
+  <si>
+    <t>3R000004</t>
+  </si>
+  <si>
+    <t>3R000005</t>
+  </si>
+  <si>
+    <t>3R000006</t>
+  </si>
+  <si>
+    <t>3R000007</t>
+  </si>
+  <si>
+    <t>3R000008</t>
+  </si>
+  <si>
+    <t>4T000001</t>
+  </si>
+  <si>
+    <t>4T000002</t>
+  </si>
+  <si>
+    <t>4T000003</t>
+  </si>
+  <si>
+    <t>4T000004</t>
+  </si>
+  <si>
+    <t>4T000005</t>
+  </si>
+  <si>
+    <t>4T000006</t>
+  </si>
+  <si>
+    <t>4T000007</t>
+  </si>
+  <si>
+    <t>4T000008</t>
   </si>
   <si>
     <t>A_01_XX_XX_ApartmentSW</t>
@@ -313,99 +406,6 @@
   </si>
   <si>
     <t>A_04_XX_XX_ApartmentN2</t>
-  </si>
-  <si>
-    <t>1S000001</t>
-  </si>
-  <si>
-    <t>1S000002</t>
-  </si>
-  <si>
-    <t>1S000003</t>
-  </si>
-  <si>
-    <t>1S000004</t>
-  </si>
-  <si>
-    <t>1S000005</t>
-  </si>
-  <si>
-    <t>1S000006</t>
-  </si>
-  <si>
-    <t>1S000007</t>
-  </si>
-  <si>
-    <t>2N000001</t>
-  </si>
-  <si>
-    <t>2N000002</t>
-  </si>
-  <si>
-    <t>2N000003</t>
-  </si>
-  <si>
-    <t>2N000004</t>
-  </si>
-  <si>
-    <t>2N000005</t>
-  </si>
-  <si>
-    <t>2N000006</t>
-  </si>
-  <si>
-    <t>2N000007</t>
-  </si>
-  <si>
-    <t>2N000008</t>
-  </si>
-  <si>
-    <t>3R000001</t>
-  </si>
-  <si>
-    <t>3R000002</t>
-  </si>
-  <si>
-    <t>3R000003</t>
-  </si>
-  <si>
-    <t>3R000004</t>
-  </si>
-  <si>
-    <t>3R000005</t>
-  </si>
-  <si>
-    <t>3R000006</t>
-  </si>
-  <si>
-    <t>3R000007</t>
-  </si>
-  <si>
-    <t>3R000008</t>
-  </si>
-  <si>
-    <t>4T000001</t>
-  </si>
-  <si>
-    <t>4T000002</t>
-  </si>
-  <si>
-    <t>4T000003</t>
-  </si>
-  <si>
-    <t>4T000004</t>
-  </si>
-  <si>
-    <t>4T000005</t>
-  </si>
-  <si>
-    <t>4T000006</t>
-  </si>
-  <si>
-    <t>4T000007</t>
-  </si>
-  <si>
-    <t>4T000008</t>
   </si>
   <si>
     <t>Pass</t>
@@ -595,9 +595,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
     <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -608,8 +608,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -626,8 +626,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -644,8 +644,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -684,8 +684,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -702,8 +702,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -720,8 +720,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -738,8 +738,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -756,8 +756,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -774,8 +774,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
@@ -1113,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -1127,10 +1127,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -1144,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -1161,10 +1161,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -1178,10 +1178,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -1195,10 +1195,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1212,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -1229,10 +1229,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1246,10 +1246,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -1263,10 +1263,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1280,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="129">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -72,7 +72,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>jovyan</t>
+    <t>ngDe</t>
+  </si>
+  <si>
+    <t>O.Hensby</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -108,10 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>20220308</t>
+    <t>20220316</t>
   </si>
   <si>
     <t>index</t>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-08 17:51:20.723985</t>
+    <t>2022-03-16 17:28:01.745787</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +429,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -595,9 +603,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Author"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -614,11 +622,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -632,11 +640,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -650,11 +658,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -665,7 +673,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -676,7 +684,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -690,11 +698,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -708,11 +716,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -726,11 +734,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -744,11 +752,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -762,11 +770,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -780,11 +788,11 @@
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
-    <tableColumn id="7" name="Criterion 3 (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
+    <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1116,7 +1124,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1130,10 +1138,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1147,10 +1155,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1164,10 +1172,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1181,10 +1189,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1198,10 +1206,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1215,10 +1223,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1232,10 +1240,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1249,10 +1257,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1266,10 +1274,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1283,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1334,10 +1342,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -1362,11 +1370,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -1391,11 +1399,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>-1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -1420,11 +1428,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>-1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -1449,11 +1457,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -1478,11 +1486,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -1507,11 +1515,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -1536,11 +1544,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -1565,11 +1573,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>127</v>
@@ -1594,11 +1602,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -1623,11 +1631,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>127</v>
@@ -1652,11 +1660,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -1681,11 +1689,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -1710,11 +1718,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -1739,11 +1747,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -1768,11 +1776,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -1797,11 +1805,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>127</v>
@@ -1826,11 +1834,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -1855,11 +1863,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>127</v>
@@ -1884,11 +1892,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -1913,11 +1921,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -1942,11 +1950,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -1971,11 +1979,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -2000,11 +2008,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -2029,11 +2037,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>-1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>127</v>
@@ -2058,11 +2066,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>-1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2087,11 +2095,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>-1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -2116,11 +2124,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>-1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2145,11 +2153,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>-3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -2174,11 +2182,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -2203,11 +2211,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>-3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -2232,11 +2240,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>-3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -2283,10 +2291,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -2311,11 +2319,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -2340,11 +2348,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>-1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -2369,11 +2377,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>-1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -2398,11 +2406,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -2427,11 +2435,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -2456,11 +2464,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -2485,11 +2493,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -2514,11 +2522,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>127</v>
@@ -2543,11 +2551,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -2572,11 +2580,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>127</v>
@@ -2601,11 +2609,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -2630,11 +2638,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>-3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -2659,11 +2667,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -2688,11 +2696,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -2717,11 +2725,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>-3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -2746,11 +2754,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>127</v>
@@ -2775,11 +2783,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -2804,11 +2812,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>127</v>
@@ -2833,11 +2841,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -2862,11 +2870,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -2891,11 +2899,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -2920,11 +2928,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -2949,11 +2957,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -2978,11 +2986,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>-1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>127</v>
@@ -3007,11 +3015,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>-1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -3036,11 +3044,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>-1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -3065,11 +3073,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>-1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -3094,11 +3102,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>-3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -3123,11 +3131,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>-3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -3152,11 +3160,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>-3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -3181,11 +3189,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>-3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -3232,10 +3240,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -3260,11 +3268,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -3289,11 +3297,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>-1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -3318,11 +3326,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>-1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -3347,11 +3355,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>-4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -3376,11 +3384,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -3405,11 +3413,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -3434,11 +3442,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>-4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -3463,11 +3471,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <v>-1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>127</v>
@@ -3492,11 +3500,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -3521,11 +3529,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>127</v>
@@ -3550,11 +3558,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -3579,11 +3587,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>-3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -3608,11 +3616,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -3637,11 +3645,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>-3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -3666,11 +3674,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>-3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -3695,11 +3703,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>127</v>
@@ -3724,11 +3732,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -3753,11 +3761,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>127</v>
@@ -3782,11 +3790,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -3811,11 +3819,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>-3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -3840,11 +3848,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -3869,11 +3877,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -3898,11 +3906,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>-3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -3927,11 +3935,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>-1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>127</v>
@@ -3956,11 +3964,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>-1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -3985,11 +3993,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>-1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -4014,11 +4022,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>-1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -4043,11 +4051,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>-3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -4072,11 +4080,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>-3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -4101,11 +4109,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>-3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -4130,11 +4138,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>-3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -4348,10 +4356,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -4368,7 +4376,7 @@
         <v>127</v>
       </c>
       <c r="D2">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="E2" t="s">
         <v>128</v>
@@ -4376,11 +4384,11 @@
       <c r="F2">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -4397,7 +4405,7 @@
         <v>128</v>
       </c>
       <c r="D3">
-        <v>7.89</v>
+        <v>7.79</v>
       </c>
       <c r="E3" t="s">
         <v>128</v>
@@ -4405,11 +4413,11 @@
       <c r="F3">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>128</v>
@@ -4426,7 +4434,7 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>8.039999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="E4" t="s">
         <v>128</v>
@@ -4434,11 +4442,11 @@
       <c r="F4">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>128</v>
@@ -4463,11 +4471,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -4492,11 +4500,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -4521,11 +4529,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -4550,11 +4558,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -4577,13 +4585,13 @@
         <v>128</v>
       </c>
       <c r="F9">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="G9">
         <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -4608,11 +4616,11 @@
       <c r="F10">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -4637,11 +4645,11 @@
       <c r="F11">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
         <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -4658,7 +4666,7 @@
         <v>128</v>
       </c>
       <c r="D12">
-        <v>26.4</v>
+        <v>26.34</v>
       </c>
       <c r="E12" t="s">
         <v>128</v>
@@ -4666,11 +4674,11 @@
       <c r="F12">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
         <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -4695,11 +4703,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -4724,11 +4732,11 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -4753,11 +4761,11 @@
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -4782,11 +4790,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -4803,7 +4811,7 @@
         <v>128</v>
       </c>
       <c r="D17">
-        <v>12.94</v>
+        <v>12.91</v>
       </c>
       <c r="E17" t="s">
         <v>128</v>
@@ -4811,11 +4819,11 @@
       <c r="F17">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -4832,7 +4840,7 @@
         <v>128</v>
       </c>
       <c r="D18">
-        <v>28.26</v>
+        <v>28.31</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
@@ -4840,11 +4848,11 @@
       <c r="F18">
         <v>30</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
         <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -4861,7 +4869,7 @@
         <v>128</v>
       </c>
       <c r="D19">
-        <v>13.45</v>
+        <v>13.43</v>
       </c>
       <c r="E19" t="s">
         <v>128</v>
@@ -4869,11 +4877,11 @@
       <c r="F19">
         <v>33</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
         <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -4890,7 +4898,7 @@
         <v>128</v>
       </c>
       <c r="D20">
-        <v>28.46</v>
+        <v>28.61</v>
       </c>
       <c r="E20" t="s">
         <v>128</v>
@@ -4898,11 +4906,11 @@
       <c r="F20">
         <v>30</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
         <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -4927,11 +4935,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -4956,11 +4964,11 @@
       <c r="F22">
         <v>7</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -4985,11 +4993,11 @@
       <c r="F23">
         <v>7</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -5014,11 +5022,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -5035,7 +5043,7 @@
         <v>128</v>
       </c>
       <c r="D25">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="E25" t="s">
         <v>128</v>
@@ -5043,11 +5051,11 @@
       <c r="F25">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -5064,7 +5072,7 @@
         <v>128</v>
       </c>
       <c r="D26">
-        <v>17.8</v>
+        <v>17.75</v>
       </c>
       <c r="E26" t="s">
         <v>128</v>
@@ -5072,11 +5080,11 @@
       <c r="F26">
         <v>22</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -5101,11 +5109,11 @@
       <c r="F27">
         <v>21</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -5130,11 +5138,11 @@
       <c r="F28">
         <v>22</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -5159,11 +5167,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -5188,11 +5196,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -5217,11 +5225,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -5246,11 +5254,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -5297,10 +5305,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5317,7 +5325,7 @@
         <v>127</v>
       </c>
       <c r="D2">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="E2" t="s">
         <v>127</v>
@@ -5325,11 +5333,11 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -5354,11 +5362,11 @@
       <c r="F3">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5383,11 +5391,11 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5412,11 +5420,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>-1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -5441,11 +5449,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>-1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -5470,11 +5478,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -5499,11 +5507,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>-1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -5520,7 +5528,7 @@
         <v>128</v>
       </c>
       <c r="D9">
-        <v>4.19</v>
+        <v>4.25</v>
       </c>
       <c r="E9" t="s">
         <v>128</v>
@@ -5528,11 +5536,11 @@
       <c r="F9">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -5557,11 +5565,11 @@
       <c r="F10">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -5586,11 +5594,11 @@
       <c r="F11">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
         <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -5607,7 +5615,7 @@
         <v>128</v>
       </c>
       <c r="D12">
-        <v>12.67</v>
+        <v>12.62</v>
       </c>
       <c r="E12" t="s">
         <v>128</v>
@@ -5615,11 +5623,11 @@
       <c r="F12">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
         <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -5644,11 +5652,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -5673,11 +5681,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -5702,11 +5710,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -5731,11 +5739,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -5760,11 +5768,11 @@
       <c r="F17">
         <v>20</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -5789,11 +5797,11 @@
       <c r="F18">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
         <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -5818,11 +5826,11 @@
       <c r="F19">
         <v>23</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
         <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -5847,11 +5855,11 @@
       <c r="F20">
         <v>22</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
         <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -5876,11 +5884,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -5905,11 +5913,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -5934,11 +5942,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -5963,11 +5971,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -5992,11 +6000,11 @@
       <c r="F25">
         <v>8</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>127</v>
@@ -6013,7 +6021,7 @@
         <v>128</v>
       </c>
       <c r="D26">
-        <v>5.73</v>
+        <v>5.68</v>
       </c>
       <c r="E26" t="s">
         <v>128</v>
@@ -6021,11 +6029,11 @@
       <c r="F26">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -6050,11 +6058,11 @@
       <c r="F27">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -6071,7 +6079,7 @@
         <v>128</v>
       </c>
       <c r="D28">
-        <v>5.63</v>
+        <v>5.73</v>
       </c>
       <c r="E28" t="s">
         <v>128</v>
@@ -6079,11 +6087,11 @@
       <c r="F28">
         <v>12</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -6108,11 +6116,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>-1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -6137,11 +6145,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -6166,11 +6174,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -6195,11 +6203,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>-1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -6246,10 +6254,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -6274,11 +6282,11 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -6303,11 +6311,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -6332,11 +6340,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -6361,11 +6369,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -6390,11 +6398,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>-1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -6419,11 +6427,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -6448,11 +6456,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -6475,13 +6483,13 @@
         <v>128</v>
       </c>
       <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="G9">
         <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>127</v>
@@ -6498,7 +6506,7 @@
         <v>128</v>
       </c>
       <c r="D10">
-        <v>6.39</v>
+        <v>6.33</v>
       </c>
       <c r="E10" t="s">
         <v>128</v>
@@ -6506,11 +6514,11 @@
       <c r="F10">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -6527,7 +6535,7 @@
         <v>127</v>
       </c>
       <c r="D11">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E11" t="s">
         <v>128</v>
@@ -6535,11 +6543,11 @@
       <c r="F11">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
         <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>127</v>
@@ -6556,7 +6564,7 @@
         <v>128</v>
       </c>
       <c r="D12">
-        <v>6.39</v>
+        <v>6.33</v>
       </c>
       <c r="E12" t="s">
         <v>128</v>
@@ -6564,11 +6572,11 @@
       <c r="F12">
         <v>14</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
         <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -6593,11 +6601,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>-1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -6622,11 +6630,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -6651,11 +6659,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>-1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -6680,11 +6688,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>-1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -6701,7 +6709,7 @@
         <v>127</v>
       </c>
       <c r="D17">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="E17" t="s">
         <v>128</v>
@@ -6709,11 +6717,11 @@
       <c r="F17">
         <v>12</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>127</v>
@@ -6730,7 +6738,7 @@
         <v>128</v>
       </c>
       <c r="D18">
-        <v>8.25</v>
+        <v>8.14</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
@@ -6738,11 +6746,11 @@
       <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
         <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -6759,7 +6767,7 @@
         <v>127</v>
       </c>
       <c r="D19">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="E19" t="s">
         <v>128</v>
@@ -6767,11 +6775,11 @@
       <c r="F19">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
         <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>127</v>
@@ -6788,7 +6796,7 @@
         <v>128</v>
       </c>
       <c r="D20">
-        <v>8.199999999999999</v>
+        <v>8.04</v>
       </c>
       <c r="E20" t="s">
         <v>128</v>
@@ -6796,11 +6804,11 @@
       <c r="F20">
         <v>17</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
         <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -6825,11 +6833,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>-1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -6854,11 +6862,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -6883,11 +6891,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -6912,11 +6920,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>-1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -6941,11 +6949,11 @@
       <c r="F25">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>127</v>
@@ -6970,11 +6978,11 @@
       <c r="F26">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -6999,11 +7007,11 @@
       <c r="F27">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -7028,11 +7036,11 @@
       <c r="F28">
         <v>9</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -7057,11 +7065,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>-1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -7086,11 +7094,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>-1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -7115,11 +7123,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>-1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -7144,11 +7152,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>-1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -7195,10 +7203,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -7223,11 +7231,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -7252,11 +7260,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -7281,11 +7289,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -7310,11 +7318,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -7339,11 +7347,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -7368,11 +7376,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -7397,11 +7405,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -7418,7 +7426,7 @@
         <v>127</v>
       </c>
       <c r="D9">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E9" t="s">
         <v>127</v>
@@ -7426,11 +7434,11 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>127</v>
@@ -7447,7 +7455,7 @@
         <v>127</v>
       </c>
       <c r="D10">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="E10" t="s">
         <v>128</v>
@@ -7455,11 +7463,11 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7476,19 +7484,19 @@
         <v>127</v>
       </c>
       <c r="D11">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="E11" t="s">
         <v>127</v>
       </c>
       <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>127</v>
@@ -7513,11 +7521,11 @@
       <c r="F12">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7542,11 +7550,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>-1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -7571,11 +7579,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>-1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -7600,11 +7608,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>-1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -7629,11 +7637,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>-1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -7650,7 +7658,7 @@
         <v>127</v>
       </c>
       <c r="D17">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="E17" t="s">
         <v>127</v>
@@ -7658,11 +7666,11 @@
       <c r="F17">
         <v>6</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>127</v>
@@ -7687,11 +7695,11 @@
       <c r="F18">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -7716,11 +7724,11 @@
       <c r="F19">
         <v>6</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>127</v>
@@ -7745,11 +7753,11 @@
       <c r="F20">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -7774,11 +7782,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>-1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -7803,11 +7811,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>-1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -7832,11 +7840,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>-1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -7861,11 +7869,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>-1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -7890,11 +7898,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>127</v>
@@ -7919,11 +7927,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -7948,11 +7956,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -7977,11 +7985,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -8006,11 +8014,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -8035,11 +8043,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>-1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -8064,11 +8072,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -8093,11 +8101,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -8144,10 +8152,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -8172,11 +8180,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -8201,11 +8209,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -8230,11 +8238,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -8259,11 +8267,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -8288,11 +8296,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -8317,11 +8325,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -8346,11 +8354,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -8375,11 +8383,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>127</v>
@@ -8404,11 +8412,11 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -8433,11 +8441,11 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>127</v>
@@ -8462,11 +8470,11 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -8491,11 +8499,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -8520,11 +8528,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>-1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -8549,11 +8557,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -8578,11 +8586,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -8607,11 +8615,11 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>127</v>
@@ -8628,7 +8636,7 @@
         <v>127</v>
       </c>
       <c r="D18">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E18" t="s">
         <v>127</v>
@@ -8636,11 +8644,11 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8665,11 +8673,11 @@
       <c r="F19">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>127</v>
@@ -8694,11 +8702,11 @@
       <c r="F20">
         <v>5</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -8723,11 +8731,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -8752,11 +8760,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>-1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -8781,11 +8789,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>-1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -8810,11 +8818,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -8839,11 +8847,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>127</v>
@@ -8868,11 +8876,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -8897,11 +8905,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -8926,11 +8934,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -8955,11 +8963,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -8984,11 +8992,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -9013,11 +9021,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -9042,11 +9050,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -9093,10 +9101,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -9121,11 +9129,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -9150,11 +9158,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>-1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -9179,11 +9187,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>-1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -9208,11 +9216,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
@@ -9237,11 +9245,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6">
-        <v>-3</v>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -9266,11 +9274,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
@@ -9295,11 +9303,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
       </c>
       <c r="I8" t="s">
         <v>127</v>
@@ -9324,11 +9332,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>127</v>
@@ -9353,11 +9361,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -9382,11 +9390,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>127</v>
@@ -9411,11 +9419,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -9440,11 +9448,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>127</v>
@@ -9469,11 +9477,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
       </c>
       <c r="I14" t="s">
         <v>127</v>
@@ -9498,11 +9506,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
@@ -9527,11 +9535,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>127</v>
@@ -9556,11 +9564,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>127</v>
@@ -9585,11 +9593,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -9614,11 +9622,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>127</v>
@@ -9643,11 +9651,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -9672,11 +9680,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -9701,11 +9709,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>-1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -9730,11 +9738,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -9759,11 +9767,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -9788,11 +9796,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>127</v>
@@ -9817,11 +9825,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -9846,11 +9854,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -9875,11 +9883,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -9904,11 +9912,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -9933,11 +9941,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
@@ -9962,11 +9970,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>127</v>
@@ -9991,11 +9999,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -30,15 +30,15 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,10 +72,13 @@
     <t>10</t>
   </si>
   <si>
-    <t>ngDe</t>
-  </si>
-  <si>
-    <t>O.Hensby</t>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>20220324</t>
+  </si>
+  <si>
+    <t>jovyan</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -111,9 +114,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>20220316</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-16 17:28:01.745787</t>
+    <t>2022-03-24 17:11:10.504860</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,14 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -604,9 +596,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Author"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -618,15 +610,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -636,15 +628,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -654,15 +646,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -673,7 +665,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -684,7 +676,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -694,15 +686,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -712,15 +704,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -730,15 +722,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -748,15 +740,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -766,15 +758,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -784,15 +776,15 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
-    <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="3" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="4" name="Criterion 1 (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1127,7 +1119,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1141,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1158,10 +1150,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1175,10 +1167,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1192,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1209,10 +1201,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1226,10 +1218,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1243,10 +1235,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1260,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1277,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1294,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1330,16 +1322,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -1358,17 +1350,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -1387,17 +1379,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -1416,17 +1408,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -1445,17 +1437,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -1474,17 +1466,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-3</v>
@@ -1503,17 +1495,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-3</v>
@@ -1532,17 +1524,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -1561,17 +1553,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1590,17 +1582,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1619,17 +1611,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1648,17 +1640,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1677,17 +1669,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-2</v>
@@ -1706,17 +1698,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-2</v>
@@ -1735,17 +1727,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -1764,17 +1756,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-2</v>
@@ -1793,17 +1785,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1822,17 +1814,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1851,17 +1843,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1880,17 +1872,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1909,17 +1901,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-2</v>
@@ -1938,17 +1930,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-2</v>
@@ -1967,17 +1959,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -1996,17 +1988,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-2</v>
@@ -2025,17 +2017,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -2054,17 +2046,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -2083,17 +2075,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -2112,17 +2104,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -2141,17 +2133,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-3</v>
@@ -2170,17 +2162,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-2</v>
@@ -2199,17 +2191,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-3</v>
@@ -2228,17 +2220,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-3</v>
@@ -2279,16 +2271,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -2307,17 +2299,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -2336,17 +2328,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -2365,17 +2357,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -2394,17 +2386,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -2423,17 +2415,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-3</v>
@@ -2452,17 +2444,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-3</v>
@@ -2481,17 +2473,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -2510,17 +2502,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2539,17 +2531,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2568,17 +2560,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2597,17 +2589,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2626,17 +2618,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-3</v>
@@ -2655,17 +2647,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-2</v>
@@ -2684,17 +2676,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -2713,17 +2705,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-3</v>
@@ -2742,17 +2734,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2771,17 +2763,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2800,17 +2792,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2829,17 +2821,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2858,17 +2850,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-2</v>
@@ -2887,17 +2879,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-2</v>
@@ -2916,17 +2908,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -2945,17 +2937,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-2</v>
@@ -2974,17 +2966,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -3003,17 +2995,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -3032,17 +3024,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -3061,17 +3053,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -3090,17 +3082,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-3</v>
@@ -3119,17 +3111,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-3</v>
@@ -3148,17 +3140,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-3</v>
@@ -3177,17 +3169,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-3</v>
@@ -3228,16 +3220,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -3256,17 +3248,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -3285,17 +3277,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -3314,17 +3306,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -3343,17 +3335,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-4</v>
@@ -3372,17 +3364,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-3</v>
@@ -3401,17 +3393,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-3</v>
@@ -3430,17 +3422,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-4</v>
@@ -3459,17 +3451,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -3488,17 +3480,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3517,17 +3509,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3546,17 +3538,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3575,17 +3567,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-3</v>
@@ -3604,17 +3596,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-2</v>
@@ -3633,17 +3625,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-3</v>
@@ -3662,17 +3654,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-3</v>
@@ -3691,17 +3683,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3720,17 +3712,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3749,17 +3741,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3778,17 +3770,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3807,17 +3799,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-3</v>
@@ -3836,17 +3828,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-2</v>
@@ -3865,17 +3857,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -3894,17 +3886,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-3</v>
@@ -3923,17 +3915,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -3952,17 +3944,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -3981,17 +3973,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -4010,17 +4002,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -4039,17 +4031,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-3</v>
@@ -4068,17 +4060,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-3</v>
@@ -4097,17 +4089,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-3</v>
@@ -4126,17 +4118,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-3</v>
@@ -4344,16 +4336,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -4372,17 +4364,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>2.45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>128</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4401,17 +4393,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>7.79</v>
+      </c>
+      <c r="D3" t="s">
         <v>128</v>
       </c>
-      <c r="D3">
-        <v>7.79</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>128</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4430,17 +4422,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>8.09</v>
+      </c>
+      <c r="D4" t="s">
         <v>128</v>
       </c>
-      <c r="D4">
-        <v>8.09</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>128</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4459,17 +4451,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4488,17 +4480,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4517,17 +4509,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4546,17 +4538,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4575,17 +4567,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>10.59</v>
+      </c>
+      <c r="D9" t="s">
         <v>128</v>
       </c>
-      <c r="D9">
-        <v>10.59</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>128</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4604,17 +4596,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>26.04</v>
+      </c>
+      <c r="D10" t="s">
         <v>128</v>
       </c>
-      <c r="D10">
-        <v>26.04</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>27</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4633,17 +4625,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>11.57</v>
+      </c>
+      <c r="D11" t="s">
         <v>128</v>
       </c>
-      <c r="D11">
-        <v>11.57</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
         <v>128</v>
-      </c>
-      <c r="F11">
-        <v>31</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -4662,17 +4654,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>26.34</v>
+      </c>
+      <c r="D12" t="s">
         <v>128</v>
       </c>
-      <c r="D12">
-        <v>26.34</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>29</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4691,17 +4683,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4720,17 +4712,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>0.6</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
         <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4749,17 +4741,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>0.14</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
         <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4778,17 +4770,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4807,17 +4799,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>12.91</v>
+      </c>
+      <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="D17">
-        <v>12.91</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>128</v>
-      </c>
-      <c r="F17">
-        <v>29</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -4836,17 +4828,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>28.31</v>
+      </c>
+      <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="D18">
-        <v>28.31</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -4865,17 +4857,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>13.43</v>
+      </c>
+      <c r="D19" t="s">
         <v>128</v>
       </c>
-      <c r="D19">
-        <v>13.43</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
         <v>128</v>
-      </c>
-      <c r="F19">
-        <v>33</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -4894,17 +4886,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>28.61</v>
+      </c>
+      <c r="D20" t="s">
         <v>128</v>
       </c>
-      <c r="D20">
-        <v>28.61</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20">
-        <v>30</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -4923,17 +4915,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>0.03</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
         <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4952,17 +4944,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>1.58</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>128</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4981,17 +4973,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>0.35</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>128</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -5010,17 +5002,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>0.03</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
         <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -5039,17 +5031,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>5.58</v>
+      </c>
+      <c r="D25" t="s">
         <v>128</v>
       </c>
-      <c r="D25">
-        <v>5.58</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
         <v>128</v>
-      </c>
-      <c r="F25">
-        <v>18</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -5068,17 +5060,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>17.75</v>
+      </c>
+      <c r="D26" t="s">
         <v>128</v>
       </c>
-      <c r="D26">
-        <v>17.75</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26">
-        <v>22</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5097,17 +5089,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>5.23</v>
+      </c>
+      <c r="D27" t="s">
         <v>128</v>
       </c>
-      <c r="D27">
-        <v>5.23</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
         <v>128</v>
-      </c>
-      <c r="F27">
-        <v>21</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -5126,17 +5118,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>17.75</v>
+      </c>
+      <c r="D28" t="s">
         <v>128</v>
       </c>
-      <c r="D28">
-        <v>17.75</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
         <v>128</v>
-      </c>
-      <c r="F28">
-        <v>22</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -5155,17 +5147,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5184,17 +5176,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5213,17 +5205,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5242,17 +5234,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5293,16 +5285,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -5321,17 +5313,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>0.6</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5350,17 +5342,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>1.71</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>128</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5379,17 +5371,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>1.76</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>128</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5408,17 +5400,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5437,17 +5429,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5466,17 +5458,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -5495,17 +5487,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -5524,17 +5516,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>4.25</v>
+      </c>
+      <c r="D9" t="s">
         <v>128</v>
       </c>
-      <c r="D9">
-        <v>4.25</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>128</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5553,17 +5545,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>12.57</v>
+      </c>
+      <c r="D10" t="s">
         <v>128</v>
       </c>
-      <c r="D10">
-        <v>12.57</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>19</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5582,17 +5574,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>3.92</v>
+      </c>
+      <c r="D11" t="s">
         <v>128</v>
       </c>
-      <c r="D11">
-        <v>3.92</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>128</v>
-      </c>
-      <c r="F11">
-        <v>19</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5611,17 +5603,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>12.62</v>
+      </c>
+      <c r="D12" t="s">
         <v>128</v>
       </c>
-      <c r="D12">
-        <v>12.62</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5640,17 +5632,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5669,17 +5661,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -5698,17 +5690,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -5727,17 +5719,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -5756,17 +5748,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>5.34</v>
+      </c>
+      <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="D17">
-        <v>5.34</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
         <v>128</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -5785,17 +5777,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>15.74</v>
+      </c>
+      <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="D18">
-        <v>15.74</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18">
-        <v>22</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5814,17 +5806,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>5.15</v>
+      </c>
+      <c r="D19" t="s">
         <v>128</v>
       </c>
-      <c r="D19">
-        <v>5.15</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
         <v>128</v>
-      </c>
-      <c r="F19">
-        <v>23</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5843,17 +5835,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>15.84</v>
+      </c>
+      <c r="D20" t="s">
         <v>128</v>
       </c>
-      <c r="D20">
-        <v>15.84</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20">
-        <v>22</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -5872,17 +5864,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5901,17 +5893,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5930,17 +5922,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5959,17 +5951,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -5988,17 +5980,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>1.63</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
         <v>128</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6017,17 +6009,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>5.68</v>
+      </c>
+      <c r="D26" t="s">
         <v>128</v>
       </c>
-      <c r="D26">
-        <v>5.68</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -6046,17 +6038,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>1.14</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>128</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6075,17 +6067,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>5.73</v>
+      </c>
+      <c r="D28" t="s">
         <v>128</v>
       </c>
-      <c r="D28">
-        <v>5.73</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
         <v>128</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -6104,17 +6096,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -6133,17 +6125,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6162,17 +6154,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6191,17 +6183,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -6242,16 +6234,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -6270,17 +6262,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>0.08</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6299,17 +6291,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>0.15</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
         <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -6328,17 +6320,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>0.2</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
         <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6357,17 +6349,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-2</v>
@@ -6386,17 +6378,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -6415,17 +6407,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6444,17 +6436,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-2</v>
@@ -6473,17 +6465,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>1.8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>128</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6502,17 +6494,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>6.33</v>
+      </c>
+      <c r="D10" t="s">
         <v>128</v>
       </c>
-      <c r="D10">
-        <v>6.33</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6531,17 +6523,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>1.63</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>128</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6560,17 +6552,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>6.33</v>
+      </c>
+      <c r="D12" t="s">
         <v>128</v>
       </c>
-      <c r="D12">
-        <v>6.33</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6589,17 +6581,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -6618,17 +6610,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6647,17 +6639,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -6676,17 +6668,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -6705,17 +6697,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>2.53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>128</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6734,17 +6726,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="D18">
-        <v>8.14</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6763,17 +6755,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>2.15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>128</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6792,17 +6784,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D20" t="s">
         <v>128</v>
       </c>
-      <c r="D20">
-        <v>8.04</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -6821,17 +6813,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -6850,17 +6842,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -6879,17 +6871,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6908,17 +6900,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -6937,17 +6929,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>0.54</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
         <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6966,17 +6958,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>2.11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -6995,17 +6987,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>0.35</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
         <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -7024,17 +7016,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>2.06</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>128</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -7053,17 +7045,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -7082,17 +7074,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -7111,17 +7103,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -7140,17 +7132,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -7191,16 +7183,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -7219,17 +7211,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7248,17 +7240,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -7277,17 +7269,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -7306,17 +7298,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-2</v>
@@ -7335,17 +7327,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-2</v>
@@ -7364,17 +7356,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-2</v>
@@ -7393,17 +7385,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-2</v>
@@ -7422,17 +7414,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>0.44</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
         <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -7451,17 +7443,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>1.56</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7480,17 +7472,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>0.35</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7509,17 +7501,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>1.56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7538,17 +7530,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -7567,17 +7559,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -7596,17 +7588,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -7625,17 +7617,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -7654,17 +7646,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>0.74</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7683,17 +7675,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>2.36</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -7712,17 +7704,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>0.54</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -7741,17 +7733,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>2.36</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -7770,17 +7762,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -7799,17 +7791,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -7828,17 +7820,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -7857,17 +7849,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -7886,17 +7878,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -7915,17 +7907,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -7944,17 +7936,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -7973,17 +7965,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -8002,17 +7994,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-2</v>
@@ -8031,17 +8023,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -8060,17 +8052,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-2</v>
@@ -8089,17 +8081,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-2</v>
@@ -8140,16 +8132,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -8168,17 +8160,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -8197,17 +8189,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -8226,17 +8218,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -8255,17 +8247,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -8284,17 +8276,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-2</v>
@@ -8313,17 +8305,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-2</v>
@@ -8342,17 +8334,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -8371,17 +8363,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -8400,17 +8392,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>0.1</v>
       </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
         <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -8429,17 +8421,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>0.05</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8458,17 +8450,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>0.15</v>
       </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
         <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8487,17 +8479,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-2</v>
@@ -8516,17 +8508,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -8545,17 +8537,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -8574,17 +8566,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-2</v>
@@ -8603,17 +8595,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>0.11</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -8632,17 +8624,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>0.5</v>
       </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
         <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -8661,17 +8653,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>0.08</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -8690,17 +8682,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>0.55</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
         <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -8719,17 +8711,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-2</v>
@@ -8748,17 +8740,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -8777,17 +8769,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -8806,17 +8798,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-2</v>
@@ -8835,17 +8827,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -8864,17 +8856,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -8893,17 +8885,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -8922,17 +8914,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -8951,17 +8943,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-2</v>
@@ -8980,17 +8972,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-2</v>
@@ -9009,17 +9001,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-2</v>
@@ -9038,17 +9030,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-2</v>
@@ -9089,16 +9081,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -9117,17 +9109,17 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -9146,17 +9138,17 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -9175,17 +9167,17 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -9204,17 +9196,17 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -9233,17 +9225,17 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-2</v>
@@ -9262,17 +9254,17 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-3</v>
@@ -9291,17 +9283,17 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -9320,17 +9312,17 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -9349,17 +9341,17 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -9378,17 +9370,17 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -9407,17 +9399,17 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -9436,17 +9428,17 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-2</v>
@@ -9465,17 +9457,17 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-2</v>
@@ -9494,17 +9486,17 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -9523,17 +9515,17 @@
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-2</v>
@@ -9552,17 +9544,17 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -9581,17 +9573,17 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -9610,17 +9602,17 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -9639,17 +9631,17 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -9668,17 +9660,17 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-2</v>
@@ -9697,17 +9689,17 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -9726,17 +9718,17 @@
       <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -9755,17 +9747,17 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-2</v>
@@ -9784,17 +9776,17 @@
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -9813,17 +9805,17 @@
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -9842,17 +9834,17 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -9871,17 +9863,17 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -9900,17 +9892,17 @@
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-2</v>
@@ -9929,17 +9921,17 @@
       <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-2</v>
@@ -9958,17 +9950,17 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-2</v>
@@ -9987,17 +9979,17 @@
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-2</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -30,12 +30,12 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -75,6 +75,9 @@
     <t>/c/e</t>
   </si>
   <si>
+    <t>20220325</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>20220325</t>
-  </si>
-  <si>
     <t>jovyan</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 13:23:10.807162</t>
+    <t>2022-03-25 19:07:07.689512</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -602,8 +602,8 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1136,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1170,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1187,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1204,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1221,10 +1221,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1238,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1255,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1272,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1289,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -30,15 +30,15 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -75,45 +75,45 @@
     <t>ngDe</t>
   </si>
   <si>
+    <t>20220614</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>O.Hensby</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>20220316</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-16 17:28:01.745787</t>
+    <t>2022-06-14 16:14:04.248603</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -604,9 +604,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Author"/>
+    <tableColumn id="3" name="Date"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,8 +620,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -638,8 +638,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -656,8 +656,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -696,8 +696,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -714,8 +714,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -732,8 +732,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -750,8 +750,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -768,8 +768,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -786,8 +786,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Criterion 1 (Pass/Fail)"/>
     <tableColumn id="4" name="Criterion 1 (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion 2 (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="5" name="Criterion 2 (Max Daily Weight)"/>
+    <tableColumn id="6" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="8" name="Criterion 3 (Pass/Fail)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
@@ -1336,10 +1336,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -1364,11 +1364,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -1393,11 +1393,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -1422,11 +1422,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -1451,11 +1451,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -1480,11 +1480,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-3</v>
@@ -1509,11 +1509,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-3</v>
@@ -1538,11 +1538,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -1567,11 +1567,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1596,11 +1596,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1625,11 +1625,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1654,11 +1654,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1683,11 +1683,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-2</v>
@@ -1712,11 +1712,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-2</v>
@@ -1741,11 +1741,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -1770,11 +1770,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-2</v>
@@ -1799,11 +1799,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1828,11 +1828,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1857,11 +1857,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1886,11 +1886,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1915,11 +1915,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-2</v>
@@ -1944,11 +1944,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-2</v>
@@ -1973,11 +1973,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -2002,11 +2002,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-2</v>
@@ -2031,11 +2031,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -2060,11 +2060,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -2089,11 +2089,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -2118,11 +2118,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -2147,11 +2147,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-3</v>
@@ -2176,11 +2176,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-2</v>
@@ -2205,11 +2205,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-3</v>
@@ -2234,11 +2234,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-3</v>
@@ -2285,10 +2285,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -2313,11 +2313,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -2342,11 +2342,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -2371,11 +2371,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -2400,11 +2400,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -2429,11 +2429,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-3</v>
@@ -2458,11 +2458,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-3</v>
@@ -2487,11 +2487,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -2516,11 +2516,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2545,11 +2545,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2574,11 +2574,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2603,11 +2603,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2632,11 +2632,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-3</v>
@@ -2661,11 +2661,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-2</v>
@@ -2690,11 +2690,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -2719,11 +2719,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-3</v>
@@ -2748,11 +2748,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2777,11 +2777,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2806,11 +2806,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2835,11 +2835,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2864,11 +2864,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-2</v>
@@ -2893,11 +2893,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-2</v>
@@ -2922,11 +2922,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -2951,11 +2951,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-2</v>
@@ -2980,11 +2980,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -3009,11 +3009,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -3038,11 +3038,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -3067,11 +3067,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -3096,11 +3096,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-3</v>
@@ -3125,11 +3125,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-3</v>
@@ -3154,11 +3154,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-3</v>
@@ -3183,11 +3183,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-3</v>
@@ -3234,10 +3234,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -3262,11 +3262,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -3291,11 +3291,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -3320,11 +3320,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -3349,11 +3349,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-4</v>
@@ -3378,11 +3378,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-3</v>
@@ -3407,11 +3407,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-3</v>
@@ -3436,11 +3436,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-4</v>
@@ -3465,11 +3465,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -3494,11 +3494,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3523,11 +3523,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3552,11 +3552,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3581,11 +3581,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-3</v>
@@ -3610,11 +3610,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-2</v>
@@ -3639,11 +3639,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-3</v>
@@ -3668,11 +3668,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-3</v>
@@ -3697,11 +3697,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3726,11 +3726,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3755,11 +3755,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3784,11 +3784,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3813,11 +3813,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-3</v>
@@ -3842,11 +3842,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-2</v>
@@ -3871,11 +3871,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -3900,11 +3900,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-3</v>
@@ -3929,11 +3929,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -3958,11 +3958,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -3987,11 +3987,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -4016,11 +4016,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -4045,11 +4045,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-3</v>
@@ -4074,11 +4074,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-3</v>
@@ -4103,11 +4103,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-3</v>
@@ -4132,11 +4132,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-3</v>
@@ -4350,10 +4350,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -4378,11 +4378,11 @@
       <c r="D2">
         <v>2.45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>128</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4407,11 +4407,11 @@
       <c r="D3">
         <v>7.79</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>128</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4436,11 +4436,11 @@
       <c r="D4">
         <v>8.09</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>128</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4465,11 +4465,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4494,11 +4494,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4523,11 +4523,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4552,11 +4552,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4581,11 +4581,11 @@
       <c r="D9">
         <v>10.59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>128</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4610,11 +4610,11 @@
       <c r="D10">
         <v>26.04</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>27</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4639,11 +4639,11 @@
       <c r="D11">
         <v>11.57</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
         <v>128</v>
-      </c>
-      <c r="F11">
-        <v>31</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -4668,11 +4668,11 @@
       <c r="D12">
         <v>26.34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>29</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4697,11 +4697,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4726,11 +4726,11 @@
       <c r="D14">
         <v>0.6</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4755,11 +4755,11 @@
       <c r="D15">
         <v>0.14</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4784,11 +4784,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4813,11 +4813,11 @@
       <c r="D17">
         <v>12.91</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>128</v>
-      </c>
-      <c r="F17">
-        <v>29</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -4842,11 +4842,11 @@
       <c r="D18">
         <v>28.31</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -4871,11 +4871,11 @@
       <c r="D19">
         <v>13.43</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
         <v>128</v>
-      </c>
-      <c r="F19">
-        <v>33</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -4900,11 +4900,11 @@
       <c r="D20">
         <v>28.61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20">
-        <v>30</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -4929,11 +4929,11 @@
       <c r="D21">
         <v>0.03</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
         <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4958,11 +4958,11 @@
       <c r="D22">
         <v>1.58</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>128</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4987,11 +4987,11 @@
       <c r="D23">
         <v>0.35</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>128</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -5016,11 +5016,11 @@
       <c r="D24">
         <v>0.03</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
         <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -5045,11 +5045,11 @@
       <c r="D25">
         <v>5.58</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
         <v>128</v>
-      </c>
-      <c r="F25">
-        <v>18</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -5074,11 +5074,11 @@
       <c r="D26">
         <v>17.75</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26">
-        <v>22</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5103,11 +5103,11 @@
       <c r="D27">
         <v>5.23</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
         <v>128</v>
-      </c>
-      <c r="F27">
-        <v>21</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -5132,11 +5132,11 @@
       <c r="D28">
         <v>17.75</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
         <v>128</v>
-      </c>
-      <c r="F28">
-        <v>22</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -5161,11 +5161,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5190,11 +5190,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5219,11 +5219,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5248,11 +5248,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5299,10 +5299,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -5327,11 +5327,11 @@
       <c r="D2">
         <v>0.6</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5356,11 +5356,11 @@
       <c r="D3">
         <v>1.71</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>128</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5385,11 +5385,11 @@
       <c r="D4">
         <v>1.76</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>128</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5414,11 +5414,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5443,11 +5443,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5472,11 +5472,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -5501,11 +5501,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -5530,11 +5530,11 @@
       <c r="D9">
         <v>4.25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>128</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5559,11 +5559,11 @@
       <c r="D10">
         <v>12.57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>19</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5588,11 +5588,11 @@
       <c r="D11">
         <v>3.92</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>128</v>
-      </c>
-      <c r="F11">
-        <v>19</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5617,11 +5617,11 @@
       <c r="D12">
         <v>12.62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5646,11 +5646,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5675,11 +5675,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -5704,11 +5704,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -5733,11 +5733,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -5762,11 +5762,11 @@
       <c r="D17">
         <v>5.34</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
         <v>128</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -5791,11 +5791,11 @@
       <c r="D18">
         <v>15.74</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18">
-        <v>22</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5820,11 +5820,11 @@
       <c r="D19">
         <v>5.15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
         <v>128</v>
-      </c>
-      <c r="F19">
-        <v>23</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5849,11 +5849,11 @@
       <c r="D20">
         <v>15.84</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20">
-        <v>22</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -5878,11 +5878,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5907,11 +5907,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5936,11 +5936,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5965,11 +5965,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -5994,11 +5994,11 @@
       <c r="D25">
         <v>1.63</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
         <v>128</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6023,11 +6023,11 @@
       <c r="D26">
         <v>5.68</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -6052,11 +6052,11 @@
       <c r="D27">
         <v>1.14</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>128</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6081,11 +6081,11 @@
       <c r="D28">
         <v>5.73</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
         <v>128</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -6110,11 +6110,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -6139,11 +6139,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6168,11 +6168,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6197,11 +6197,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -6248,10 +6248,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -6276,11 +6276,11 @@
       <c r="D2">
         <v>0.08</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6305,11 +6305,11 @@
       <c r="D3">
         <v>0.15</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -6334,11 +6334,11 @@
       <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
         <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6363,11 +6363,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-2</v>
@@ -6392,11 +6392,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -6421,11 +6421,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6450,11 +6450,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-2</v>
@@ -6479,11 +6479,11 @@
       <c r="D9">
         <v>1.8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>128</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6508,11 +6508,11 @@
       <c r="D10">
         <v>6.33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6537,11 +6537,11 @@
       <c r="D11">
         <v>1.63</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>128</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6566,11 +6566,11 @@
       <c r="D12">
         <v>6.33</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6595,11 +6595,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -6624,11 +6624,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6653,11 +6653,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -6682,11 +6682,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -6711,11 +6711,11 @@
       <c r="D17">
         <v>2.53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>128</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6740,11 +6740,11 @@
       <c r="D18">
         <v>8.14</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6769,11 +6769,11 @@
       <c r="D19">
         <v>2.15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>128</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6798,11 +6798,11 @@
       <c r="D20">
         <v>8.04</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -6827,11 +6827,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -6856,11 +6856,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -6885,11 +6885,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6914,11 +6914,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -6943,11 +6943,11 @@
       <c r="D25">
         <v>0.54</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="E25">
         <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6972,11 +6972,11 @@
       <c r="D26">
         <v>2.11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -7001,11 +7001,11 @@
       <c r="D27">
         <v>0.35</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="E27">
         <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -7030,11 +7030,11 @@
       <c r="D28">
         <v>2.06</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>128</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -7059,11 +7059,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -7088,11 +7088,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -7117,11 +7117,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -7146,11 +7146,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -7197,10 +7197,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -7225,11 +7225,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7254,11 +7254,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -7283,11 +7283,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -7312,11 +7312,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-2</v>
@@ -7341,11 +7341,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-2</v>
@@ -7370,11 +7370,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-2</v>
@@ -7399,11 +7399,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-2</v>
@@ -7428,11 +7428,11 @@
       <c r="D9">
         <v>0.44</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
         <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -7457,11 +7457,11 @@
       <c r="D10">
         <v>1.56</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7486,11 +7486,11 @@
       <c r="D11">
         <v>0.35</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7515,11 +7515,11 @@
       <c r="D12">
         <v>1.56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7544,11 +7544,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -7573,11 +7573,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -7602,11 +7602,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -7631,11 +7631,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -7660,11 +7660,11 @@
       <c r="D17">
         <v>0.74</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7689,11 +7689,11 @@
       <c r="D18">
         <v>2.36</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -7718,11 +7718,11 @@
       <c r="D19">
         <v>0.54</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -7747,11 +7747,11 @@
       <c r="D20">
         <v>2.36</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -7776,11 +7776,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -7805,11 +7805,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -7834,11 +7834,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -7863,11 +7863,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -7892,11 +7892,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -7921,11 +7921,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -7950,11 +7950,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -7979,11 +7979,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -8008,11 +8008,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-2</v>
@@ -8037,11 +8037,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -8066,11 +8066,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-2</v>
@@ -8095,11 +8095,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-2</v>
@@ -8146,10 +8146,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -8174,11 +8174,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -8203,11 +8203,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -8232,11 +8232,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -8261,11 +8261,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -8290,11 +8290,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-2</v>
@@ -8319,11 +8319,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-2</v>
@@ -8348,11 +8348,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -8377,11 +8377,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -8406,11 +8406,11 @@
       <c r="D10">
         <v>0.1</v>
       </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
         <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -8435,11 +8435,11 @@
       <c r="D11">
         <v>0.05</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8464,11 +8464,11 @@
       <c r="D12">
         <v>0.15</v>
       </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
         <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8493,11 +8493,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-2</v>
@@ -8522,11 +8522,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -8551,11 +8551,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -8580,11 +8580,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-2</v>
@@ -8609,11 +8609,11 @@
       <c r="D17">
         <v>0.11</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -8638,11 +8638,11 @@
       <c r="D18">
         <v>0.5</v>
       </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
         <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -8667,11 +8667,11 @@
       <c r="D19">
         <v>0.08</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -8696,11 +8696,11 @@
       <c r="D20">
         <v>0.55</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
+      <c r="E20">
         <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -8725,11 +8725,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-2</v>
@@ -8754,11 +8754,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -8783,11 +8783,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -8812,11 +8812,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-2</v>
@@ -8841,11 +8841,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -8870,11 +8870,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -8899,11 +8899,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -8928,11 +8928,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -8957,11 +8957,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-2</v>
@@ -8986,11 +8986,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-2</v>
@@ -9015,11 +9015,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-2</v>
@@ -9044,11 +9044,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-2</v>
@@ -9095,10 +9095,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -9123,11 +9123,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -9152,11 +9152,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -9181,11 +9181,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -9210,11 +9210,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -9239,11 +9239,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
       </c>
       <c r="G6">
         <v>-2</v>
@@ -9268,11 +9268,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
       </c>
       <c r="G7">
         <v>-3</v>
@@ -9297,11 +9297,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -9326,11 +9326,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -9355,11 +9355,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -9384,11 +9384,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -9413,11 +9413,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -9442,11 +9442,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
       </c>
       <c r="G13">
         <v>-2</v>
@@ -9471,11 +9471,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
       </c>
       <c r="G14">
         <v>-2</v>
@@ -9500,11 +9500,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -9529,11 +9529,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
       </c>
       <c r="G16">
         <v>-2</v>
@@ -9558,11 +9558,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -9587,11 +9587,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -9616,11 +9616,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -9645,11 +9645,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -9674,11 +9674,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
         <v>-2</v>
@@ -9703,11 +9703,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -9732,11 +9732,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -9761,11 +9761,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
       </c>
       <c r="G24">
         <v>-2</v>
@@ -9790,11 +9790,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -9819,11 +9819,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -9848,11 +9848,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -9877,11 +9877,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -9906,11 +9906,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
       <c r="G29">
         <v>-2</v>
@@ -9935,11 +9935,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
       <c r="G30">
         <v>-2</v>
@@ -9964,11 +9964,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
       </c>
       <c r="G31">
         <v>-2</v>
@@ -9993,11 +9993,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
       </c>
       <c r="G32">
         <v>-2</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -30,12 +30,12 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -72,7 +72,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>/c/e</t>
+    <t>ngDe</t>
+  </si>
+  <si>
+    <t>20220614</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -108,10 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>20220325</t>
-  </si>
-  <si>
-    <t>jovyan</t>
+    <t>O.Hensby</t>
   </si>
   <si>
     <t>index</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 13:23:10.807162</t>
+    <t>2022-06-14 16:37:55.851324</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +435,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,7 +505,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -602,8 +610,8 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -624,7 +632,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -642,7 +650,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -660,7 +668,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -671,7 +679,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -682,7 +690,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -700,7 +708,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -718,7 +726,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -736,7 +744,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -754,7 +762,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -772,7 +780,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -790,7 +798,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1122,7 +1130,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1136,10 +1144,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1153,10 +1161,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1170,10 +1178,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1187,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1204,10 +1212,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1221,10 +1229,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1238,10 +1246,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1255,10 +1263,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1272,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1289,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -6744,7 +6752,7 @@
         <v>130</v>
       </c>
       <c r="D18">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="E18" t="s">
         <v>130</v>
@@ -6802,7 +6810,7 @@
         <v>130</v>
       </c>
       <c r="D20">
-        <v>8.039999999999999</v>
+        <v>8.04</v>
       </c>
       <c r="E20" t="s">
         <v>130</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="131">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,10 +72,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>ngDe</t>
-  </si>
-  <si>
-    <t>20220614</t>
+    <t>jovyan</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -111,7 +108,10 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>O.Hensby</t>
+    <t>20220615</t>
+  </si>
+  <si>
+    <t>/c/e</t>
   </si>
   <si>
     <t>index</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:37:55.851324</t>
+    <t>2022-06-15 10:33:09.348557</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,14 +435,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -609,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,7 +624,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -650,7 +642,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -668,7 +660,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -679,7 +671,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -690,7 +682,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -708,7 +700,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -726,7 +718,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -744,7 +736,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -762,7 +754,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -780,7 +772,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -798,7 +790,7 @@
     <tableColumn id="8" name="Criterion 3 (Max Delta T)"/>
     <tableColumn id="9" name="TM52 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1130,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1144,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1161,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1178,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1195,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1212,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1229,10 +1221,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1246,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1263,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1280,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1297,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -6752,7 +6744,7 @@
         <v>130</v>
       </c>
       <c r="D18">
-        <v>8.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E18" t="s">
         <v>130</v>
@@ -6810,7 +6802,7 @@
         <v>130</v>
       </c>
       <c r="D20">
-        <v>8.04</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E20" t="s">
         <v>130</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="131">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
     <t>20220615</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 10:33:09.348557</t>
+    <t>2022-06-15 12:25:19.129961</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
+    <tableColumn id="2" name="JobNo"/>
     <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="131">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -72,6 +72,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>20220615</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 12:25:19.129961</t>
+    <t>2022-06-15 15:57:07.449572</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,9 +601,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1136,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1170,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1187,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1204,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1221,10 +1221,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1238,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1255,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1272,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1289,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="131">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220615</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>20220615</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 15:57:07.449572</t>
+    <t>2022-06-15 17:01:41.020615</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
+    <tableColumn id="2" name="Date"/>
     <tableColumn id="3" name="JobNo"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="131">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -72,43 +72,43 @@
     <t>10</t>
   </si>
   <si>
-    <t>20220615</t>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
   </si>
   <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
+    <t>20220711</t>
   </si>
   <si>
     <t>jovyan</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 17:01:41.020615</t>
+    <t>2022-07-11 15:53:05.032327</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,9 +601,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
+    <tableColumn id="2" name="sheet_name"/>
     <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
     <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1119,10 +1119,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1150,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1167,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1184,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1218,13 +1218,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1235,13 +1235,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1252,13 +1252,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1269,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1286,10 +1286,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-07-11 15:53:05.032327</t>
+    <t>2022-07-11 16:10:14.749880</t>
   </si>
   <si>
     <t>2021.4.0.0</t>

--- a/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm52/TM52__TestJob1.xlsx
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-07-11 16:10:14.749880</t>
+    <t>2022-07-11 16:25:59.837501</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
